--- a/data3.xlsx
+++ b/data3.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csmajuh\Documents\pdftiedostot\opetus\Machine learning\MLA2024\Exercises\MLA1024Exercises3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AS2021457\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C677A28-CA97-44A9-A27A-F0DBC197140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA8B96-FB90-44D3-990C-06B00FBC25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="23100" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,1773 +374,1783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>-1.2038288159907771</v>
-      </c>
-      <c r="B1">
-        <v>-2.0992267060493406</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>-0.29921708245159118</v>
+        <v>-1.2038288159907771</v>
       </c>
       <c r="B2">
-        <v>-3.2080612391788277</v>
+        <v>-2.0992267060493406</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>-0.40982717326522988</v>
+        <v>-0.29921708245159118</v>
       </c>
       <c r="B3">
-        <v>-2.0937806242309405</v>
+        <v>-3.2080612391788277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>-1.8587032253459745</v>
+        <v>-0.40982717326522988</v>
       </c>
       <c r="B4">
-        <v>-1.5022368392268513</v>
+        <v>-2.0937806242309405</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>-1.6299276304902666</v>
+        <v>-1.8587032253459745</v>
       </c>
       <c r="B5">
-        <v>-1.2686713549704902</v>
+        <v>-1.5022368392268513</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>-0.76626247622418786</v>
+        <v>-1.6299276304902666</v>
       </c>
       <c r="B6">
-        <v>-1.0074837906261616</v>
+        <v>-1.2686713549704902</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>-1.3796684296831561</v>
+        <v>-0.76626247622418786</v>
       </c>
       <c r="B7">
-        <v>-1.0611236745627883</v>
+        <v>-1.0074837906261616</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>-0.3636687153117566</v>
+        <v>-1.3796684296831561</v>
       </c>
       <c r="B8">
-        <v>-0.93732372432530608</v>
+        <v>-1.0611236745627883</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>-2.1867731187192172</v>
+        <v>-0.3636687153117566</v>
       </c>
       <c r="B9">
-        <v>-1.7882108181640604</v>
+        <v>-0.93732372432530608</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>-1.0283171365572268</v>
+        <v>-2.1867731187192172</v>
       </c>
       <c r="B10">
-        <v>-2.4845850746331393</v>
+        <v>-1.7882108181640604</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>-1.2116575345440661</v>
+        <v>-1.0283171365572268</v>
       </c>
       <c r="B11">
-        <v>-1.7263752226384665</v>
+        <v>-2.4845850746331393</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>-0.10814516495319304</v>
+        <v>-1.2116575345440661</v>
       </c>
       <c r="B12">
-        <v>-0.99802902777328051</v>
+        <v>-1.7263752226384665</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>-2.8455020101610948</v>
+        <v>-0.10814516495319304</v>
       </c>
       <c r="B13">
-        <v>0.3017721929976358</v>
+        <v>-0.99802902777328051</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>-1.4992525938082657</v>
+        <v>-2.8455020101610948</v>
       </c>
       <c r="B14">
-        <v>-1.6093302475629097</v>
+        <v>0.3017721929976358</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>-1.4465051924262324</v>
+        <v>-1.4992525938082657</v>
       </c>
       <c r="B15">
-        <v>-2.04365526441177</v>
+        <v>-1.6093302475629097</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>-3.8419051939116775</v>
+        <v>-1.4465051924262324</v>
       </c>
       <c r="B16">
-        <v>-1.6459657511963612</v>
+        <v>-2.04365526441177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>-0.25190485544583563</v>
+        <v>-3.8419051939116775</v>
       </c>
       <c r="B17">
-        <v>-1.542215678783291</v>
+        <v>-1.6459657511963612</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1.3092318535650804</v>
+        <v>-0.25190485544583563</v>
       </c>
       <c r="B18">
-        <v>-2.8848321912625225</v>
+        <v>-1.542215678783291</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>-1.7321848617756268</v>
+        <v>1.3092318535650804</v>
       </c>
       <c r="B19">
-        <v>-2.4039024050954705</v>
+        <v>-2.8848321912625225</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>-1.2129678531066095</v>
+        <v>-1.7321848617756268</v>
       </c>
       <c r="B20">
-        <v>-1.933269263108635</v>
+        <v>-2.4039024050954705</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>-1.9646044898933599</v>
+        <v>-1.2129678531066095</v>
       </c>
       <c r="B21">
-        <v>-2.8520524407935182</v>
+        <v>-1.933269263108635</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>-1.1156822232877359</v>
+        <v>-1.9646044898933599</v>
       </c>
       <c r="B22">
-        <v>-1.3197769740324921</v>
+        <v>-2.8520524407935182</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>-1.879827523353313</v>
+        <v>-1.1156822232877359</v>
       </c>
       <c r="B23">
-        <v>-1.4607689967793878</v>
+        <v>-1.3197769740324921</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>-1.601778227545497</v>
+        <v>-1.879827523353313</v>
       </c>
       <c r="B24">
-        <v>-3.641351139177873E-2</v>
+        <v>-1.4607689967793878</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.11815114170312735</v>
+        <v>-1.601778227545497</v>
       </c>
       <c r="B25">
-        <v>-3.4863747720268057</v>
+        <v>-3.641351139177873E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>-2.3472298826498612</v>
+        <v>0.11815114170312735</v>
       </c>
       <c r="B26">
-        <v>-0.23590161754716554</v>
+        <v>-3.4863747720268057</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>-2.0758831767128223</v>
+        <v>-2.3472298826498612</v>
       </c>
       <c r="B27">
-        <v>-1.0876626867668089</v>
+        <v>-0.23590161754716554</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>-1.5759131283685486</v>
+        <v>-2.0758831767128223</v>
       </c>
       <c r="B28">
-        <v>-1.3905066274288356</v>
+        <v>-1.0876626867668089</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>-1.6324715921777331</v>
+        <v>-1.5759131283685486</v>
       </c>
       <c r="B29">
-        <v>-0.81311496132580219</v>
+        <v>-1.3905066274288356</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>-6.0690333863180124E-2</v>
+        <v>-1.6324715921777331</v>
       </c>
       <c r="B30">
-        <v>-1.1860674895651457</v>
+        <v>-0.81311496132580219</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.53126291502473455</v>
+        <v>-6.0690333863180124E-2</v>
       </c>
       <c r="B31">
-        <v>-3.4431982881725736</v>
+        <v>-1.1860674895651457</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>-2.4782016100502329</v>
+        <v>0.53126291502473455</v>
       </c>
       <c r="B32">
-        <v>0.13130362339720092</v>
+        <v>-3.4431982881725736</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>-2.1410236679923802</v>
+        <v>-2.4782016100502329</v>
       </c>
       <c r="B33">
-        <v>-2.2273816249373342</v>
+        <v>0.13130362339720092</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>-0.97952433048396181</v>
+        <v>-2.1410236679923802</v>
       </c>
       <c r="B34">
-        <v>-2.6904486262771465</v>
+        <v>-2.2273816249373342</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>-1.8806999961539923</v>
+        <v>-0.97952433048396181</v>
       </c>
       <c r="B35">
-        <v>-1.8921041183703327</v>
+        <v>-2.6904486262771465</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.49285194124337939</v>
+        <v>-1.8806999961539923</v>
       </c>
       <c r="B36">
-        <v>-1.8586310124508383</v>
+        <v>-1.8921041183703327</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.13587024814944693</v>
+        <v>0.49285194124337939</v>
       </c>
       <c r="B37">
-        <v>-3.2445482650905664</v>
+        <v>-1.8586310124508383</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>-0.94098110867049622</v>
+        <v>0.13587024814944693</v>
       </c>
       <c r="B38">
-        <v>-1.4896376491243717</v>
+        <v>-3.2445482650905664</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>-0.93636241559297617</v>
+        <v>-0.94098110867049622</v>
       </c>
       <c r="B39">
-        <v>-1.4251180013358882</v>
+        <v>-1.4896376491243717</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>-1.8383966213242764</v>
+        <v>-0.93636241559297617</v>
       </c>
       <c r="B40">
-        <v>-1.1973296916970553</v>
+        <v>-1.4251180013358882</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>-0.73635262841464499</v>
+        <v>-1.8383966213242764</v>
       </c>
       <c r="B41">
-        <v>-1.4015513734157126</v>
+        <v>-1.1973296916970553</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>-0.37255765396270513</v>
+        <v>-0.73635262841464499</v>
       </c>
       <c r="B42">
-        <v>-3.0794353339407259</v>
+        <v>-1.4015513734157126</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>-1.358428832736946</v>
+        <v>-0.37255765396270513</v>
       </c>
       <c r="B43">
-        <v>-0.6981899170732897</v>
+        <v>-3.0794353339407259</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.42813410297015175</v>
+        <v>-1.358428832736946</v>
       </c>
       <c r="B44">
-        <v>-2.3657556050649107</v>
+        <v>-0.6981899170732897</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>-0.82936209044666642</v>
+        <v>0.42813410297015175</v>
       </c>
       <c r="B45">
-        <v>-1.2030763575150352</v>
+        <v>-2.3657556050649107</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>-1.6101112369994028</v>
+        <v>-0.82936209044666642</v>
       </c>
       <c r="B46">
-        <v>-2.2966905683508791</v>
+        <v>-1.2030763575150352</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>-1.129037741988087</v>
+        <v>-1.6101112369994028</v>
       </c>
       <c r="B47">
-        <v>-1.6404204790896708</v>
+        <v>-2.2966905683508791</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>-0.40340530665166296</v>
+        <v>-1.129037741988087</v>
       </c>
       <c r="B48">
-        <v>-1.2882739956618499</v>
+        <v>-1.6404204790896708</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>-1.8981631071550797</v>
+        <v>-0.40340530665166296</v>
       </c>
       <c r="B49">
-        <v>-0.42264654194617801</v>
+        <v>-1.2882739956618499</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>-1.5854625512885032</v>
+        <v>-1.8981631071550797</v>
       </c>
       <c r="B50">
-        <v>-1.5303165908659595</v>
+        <v>-0.42264654194617801</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.87328741115301645</v>
+        <v>-1.5854625512885032</v>
       </c>
       <c r="B51">
-        <v>-4.2918491374089429</v>
+        <v>-1.5303165908659595</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>-1.9739210199352577</v>
+        <v>0.87328741115301645</v>
       </c>
       <c r="B52">
-        <v>-2.2129140881674312</v>
+        <v>-4.2918491374089429</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>-0.55365914158175233</v>
+        <v>-1.9739210199352577</v>
       </c>
       <c r="B53">
-        <v>-1.7838333498032053</v>
+        <v>-2.2129140881674312</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>-0.68183842413301343</v>
+        <v>-0.55365914158175233</v>
       </c>
       <c r="B54">
-        <v>-1.2212437043593112</v>
+        <v>-1.7838333498032053</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>8.8970884438835274E-2</v>
+        <v>-0.68183842413301343</v>
       </c>
       <c r="B55">
-        <v>-1.8934081243015299</v>
+        <v>-1.2212437043593112</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>-0.97398800278794317</v>
+        <v>8.8970884438835274E-2</v>
       </c>
       <c r="B56">
-        <v>-2.2935591627019729</v>
+        <v>-1.8934081243015299</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>-3.9651975526620715</v>
+        <v>-0.97398800278794317</v>
       </c>
       <c r="B57">
-        <v>1.6763060285936806</v>
+        <v>-2.2935591627019729</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>-2.3525279425645218</v>
+        <v>-3.9651975526620715</v>
       </c>
       <c r="B58">
-        <v>-1.0110811619754858</v>
+        <v>1.6763060285936806</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>-0.98826458723951993</v>
+        <v>-2.3525279425645218</v>
       </c>
       <c r="B59">
-        <v>-1.0063102518409022</v>
+        <v>-1.0110811619754858</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>-1.2422250886255926</v>
+        <v>-0.98826458723951993</v>
       </c>
       <c r="B60">
-        <v>-1.9888911560225075</v>
+        <v>-1.0063102518409022</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>0.46244739500166476</v>
+        <v>-1.2422250886255926</v>
       </c>
       <c r="B61">
-        <v>-3.4467884208802624</v>
+        <v>-1.9888911560225075</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>-9.3685091074762417E-2</v>
+        <v>0.46244739500166476</v>
       </c>
       <c r="B62">
-        <v>-1.6097114438677358</v>
+        <v>-3.4467884208802624</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>-1.0031662680754174</v>
+        <v>-9.3685091074762417E-2</v>
       </c>
       <c r="B63">
-        <v>-0.8497655007035817</v>
+        <v>-1.6097114438677358</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>-1.4171694377244755</v>
+        <v>-1.0031662680754174</v>
       </c>
       <c r="B64">
-        <v>3.6666193552403969E-2</v>
+        <v>-0.8497655007035817</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>-3.0484778649764492</v>
+        <v>-1.4171694377244755</v>
       </c>
       <c r="B65">
-        <v>-1.1838785408258947</v>
+        <v>3.6666193552403969E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>0.36315963313024002</v>
+        <v>-3.0484778649764492</v>
       </c>
       <c r="B66">
-        <v>-3.8414403638552574</v>
+        <v>-1.1838785408258947</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>-1.3659733781810923</v>
+        <v>0.36315963313024002</v>
       </c>
       <c r="B67">
-        <v>-0.16638831944814125</v>
+        <v>-3.8414403638552574</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>-3.046002573826212</v>
+        <v>-1.3659733781810923</v>
       </c>
       <c r="B68">
-        <v>-0.49824958451543355</v>
+        <v>-0.16638831944814125</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>-1.0667176038083692</v>
+        <v>-3.046002573826212</v>
       </c>
       <c r="B69">
-        <v>-2.69277842865539</v>
+        <v>-0.49824958451543355</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>-1.3970457800125351</v>
+        <v>-1.0667176038083692</v>
       </c>
       <c r="B70">
-        <v>-2.0357376091012203</v>
+        <v>-2.69277842865539</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>-2.0703460998766419</v>
+        <v>-1.3970457800125351</v>
       </c>
       <c r="B71">
-        <v>-1.9153074033510356</v>
+        <v>-2.0357376091012203</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>-1.006937843306249</v>
+        <v>-2.0703460998766419</v>
       </c>
       <c r="B72">
-        <v>-0.74107187311765577</v>
+        <v>-1.9153074033510356</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>-2.2075132135079771</v>
+        <v>-1.006937843306249</v>
       </c>
       <c r="B73">
-        <v>-0.63346518845048549</v>
+        <v>-0.74107187311765577</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>-2.8480250359708519</v>
+        <v>-2.2075132135079771</v>
       </c>
       <c r="B74">
-        <v>-0.6157618378616273</v>
+        <v>-0.63346518845048549</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>-3.2543015309361993</v>
+        <v>-2.8480250359708519</v>
       </c>
       <c r="B75">
-        <v>-0.41458962376138042</v>
+        <v>-0.6157618378616273</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>-1.8638089546473742</v>
+        <v>-3.2543015309361993</v>
       </c>
       <c r="B76">
-        <v>-2.0295357372968814</v>
+        <v>-0.41458962376138042</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>-2.1270940056261209</v>
+        <v>-1.8638089546473742</v>
       </c>
       <c r="B77">
-        <v>-0.32639266707993397</v>
+        <v>-2.0295357372968814</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>-1.0598497472859481</v>
+        <v>-2.1270940056261209</v>
       </c>
       <c r="B78">
-        <v>-1.4200884951874315</v>
+        <v>-0.32639266707993397</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>-3.0026411289091488</v>
+        <v>-1.0598497472859481</v>
       </c>
       <c r="B79">
-        <v>-0.97482770402469876</v>
+        <v>-1.4200884951874315</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>-1.7082354443499714</v>
+        <v>-3.0026411289091488</v>
       </c>
       <c r="B80">
-        <v>-1.5558483460380268</v>
+        <v>-0.97482770402469876</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>-3.0051254595832289</v>
+        <v>-1.7082354443499714</v>
       </c>
       <c r="B81">
-        <v>-0.83554236429758733</v>
+        <v>-1.5558483460380268</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>0.30974082267485681</v>
+        <v>-3.0051254595832289</v>
       </c>
       <c r="B82">
-        <v>-3.1730723081453238</v>
+        <v>-0.83554236429758733</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>-1.6169725677518729</v>
+        <v>0.30974082267485681</v>
       </c>
       <c r="B83">
-        <v>-0.79946231607366247</v>
+        <v>-3.1730723081453238</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>-0.27379101482993007</v>
+        <v>-1.6169725677518729</v>
       </c>
       <c r="B84">
-        <v>-0.9074171090474451</v>
+        <v>-0.79946231607366247</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>-1.0050568555359187</v>
+        <v>-0.27379101482993007</v>
       </c>
       <c r="B85">
-        <v>0.39498892479747982</v>
+        <v>-0.9074171090474451</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>-0.59140514564228597</v>
+        <v>-1.0050568555359187</v>
       </c>
       <c r="B86">
-        <v>-1.5178905615527516</v>
+        <v>0.39498892479747982</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>-2.6542188347685807</v>
+        <v>-0.59140514564228597</v>
       </c>
       <c r="B87">
-        <v>-1.6351796363516775</v>
+        <v>-1.5178905615527516</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>-0.24244448256865514</v>
+        <v>-2.6542188347685807</v>
       </c>
       <c r="B88">
-        <v>-1.9547223530358218</v>
+        <v>-1.6351796363516775</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>-4.746758326075029E-2</v>
+        <v>-0.24244448256865514</v>
       </c>
       <c r="B89">
-        <v>-3.0983992801378148</v>
+        <v>-1.9547223530358218</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>-3.5768114851631014</v>
+        <v>-4.746758326075029E-2</v>
       </c>
       <c r="B90">
-        <v>-0.99261640545929664</v>
+        <v>-3.0983992801378148</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>-1.6764880040665571</v>
+        <v>-3.5768114851631014</v>
       </c>
       <c r="B91">
-        <v>-1.9824350346063384</v>
+        <v>-0.99261640545929664</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>-2.1520821914757464</v>
+        <v>-1.6764880040665571</v>
       </c>
       <c r="B92">
-        <v>-1.8955566690657046</v>
+        <v>-1.9824350346063384</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>-1.34346619630736</v>
+        <v>-2.1520821914757464</v>
       </c>
       <c r="B93">
-        <v>-1.2507540235567165</v>
+        <v>-1.8955566690657046</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>-2.350225794307347</v>
+        <v>-1.34346619630736</v>
       </c>
       <c r="B94">
-        <v>-2.0408021249122883</v>
+        <v>-1.2507540235567165</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>-1.2209540812918367</v>
+        <v>-2.350225794307347</v>
       </c>
       <c r="B95">
-        <v>-1.0616749982860427</v>
+        <v>-2.0408021249122883</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>-0.90290626949389619</v>
+        <v>-1.2209540812918367</v>
       </c>
       <c r="B96">
-        <v>-1.1097684528151066</v>
+        <v>-1.0616749982860427</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>-1.2552832921936496</v>
+        <v>-0.90290626949389619</v>
       </c>
       <c r="B97">
-        <v>-0.72386405181868807</v>
+        <v>-1.1097684528151066</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>-1.6183465110750836</v>
+        <v>-1.2552832921936496</v>
       </c>
       <c r="B98">
-        <v>-1.4585206762859892</v>
+        <v>-0.72386405181868807</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>-2.7894078819451593</v>
+        <v>-1.6183465110750836</v>
       </c>
       <c r="B99">
-        <v>-0.31926696291389867</v>
+        <v>-1.4585206762859892</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>-1.4424363582711659</v>
+        <v>-2.7894078819451593</v>
       </c>
       <c r="B100">
-        <v>3.2716984052802101E-2</v>
+        <v>-0.31926696291389867</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>1.2832819308368744</v>
+        <v>-1.4424363582711659</v>
       </c>
       <c r="B101">
-        <v>1.1269485235065195</v>
+        <v>3.2716984052802101E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>0.18943009127842997</v>
+        <v>1.2832819308368744</v>
       </c>
       <c r="B102">
-        <v>0.65530935148621483</v>
+        <v>1.1269485235065195</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>1.1553244115728569</v>
+        <v>0.18943009127842997</v>
       </c>
       <c r="B103">
-        <v>0.52254835932092003</v>
+        <v>0.65530935148621483</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>-3.7467359670746658E-2</v>
+        <v>1.1553244115728569</v>
       </c>
       <c r="B104">
-        <v>0.34589338042866846</v>
+        <v>0.52254835932092003</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>0.82864340325320951</v>
+        <v>-3.7467359670746658E-2</v>
       </c>
       <c r="B105">
-        <v>2.9797114397764437</v>
+        <v>0.34589338042866846</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>1.5540719714289732</v>
+        <v>0.82864340325320951</v>
       </c>
       <c r="B106">
-        <v>1.0204835721725642</v>
+        <v>2.9797114397764437</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>-1.4796993191541821</v>
+        <v>1.5540719714289732</v>
       </c>
       <c r="B107">
-        <v>0.12529072795436402</v>
+        <v>1.0204835721725642</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>-1.3673881845871889</v>
+        <v>-1.4796993191541821</v>
       </c>
       <c r="B108">
-        <v>-0.83426493073983043</v>
+        <v>0.12529072795436402</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>-1.3323556710253499</v>
+        <v>-1.3673881845871889</v>
       </c>
       <c r="B109">
-        <v>-0.87333350752876759</v>
+        <v>-0.83426493073983043</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>1.3485921151401357</v>
+        <v>-1.3323556710253499</v>
       </c>
       <c r="B110">
-        <v>0.62483567333066226</v>
+        <v>-0.87333350752876759</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>0.90518726006168237</v>
+        <v>1.3485921151401357</v>
       </c>
       <c r="B111">
-        <v>1.191515003988789</v>
+        <v>0.62483567333066226</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>-0.20245603656000688</v>
+        <v>0.90518726006168237</v>
       </c>
       <c r="B112">
-        <v>-0.54538127911343404</v>
+        <v>1.191515003988789</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>1.9990460212846446</v>
+        <v>-0.20245603656000688</v>
       </c>
       <c r="B113">
-        <v>-0.35517597717406746</v>
+        <v>-0.54538127911343404</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>0.63779486573036437</v>
+        <v>1.9990460212846446</v>
       </c>
       <c r="B114">
-        <v>0.61498385586787818</v>
+        <v>-0.35517597717406746</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>-1.0868213999034526</v>
+        <v>0.63779486573036437</v>
       </c>
       <c r="B115">
-        <v>-0.67135736451935957</v>
+        <v>0.61498385586787818</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>-0.51914551483764138</v>
+        <v>-1.0868213999034526</v>
       </c>
       <c r="B116">
-        <v>0.23292082681314341</v>
+        <v>-0.67135736451935957</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>-0.88523374102592722</v>
+        <v>-0.51914551483764138</v>
       </c>
       <c r="B117">
-        <v>-0.11934602290454266</v>
+        <v>0.23292082681314341</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>1.4548864303071471</v>
+        <v>-0.88523374102592722</v>
       </c>
       <c r="B118">
-        <v>1.6088788431230019</v>
+        <v>-0.11934602290454266</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>-0.10112031937095955</v>
+        <v>1.4548864303071471</v>
       </c>
       <c r="B119">
-        <v>0.97951490368128136</v>
+        <v>1.6088788431230019</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>-0.67189080414527647</v>
+        <v>-0.10112031937095955</v>
       </c>
       <c r="B120">
-        <v>-1.233981841366705</v>
+        <v>0.97951490368128136</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>-7.7110307096736941E-2</v>
+        <v>-0.67189080414527647</v>
       </c>
       <c r="B121">
-        <v>-1.1088791490883061</v>
+        <v>-1.233981841366705</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>-0.33643052445306532</v>
+        <v>-7.7110307096736941E-2</v>
       </c>
       <c r="B122">
-        <v>0.5169047679139922</v>
+        <v>-1.1088791490883061</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>1.3529695300871731</v>
+        <v>-0.33643052445306532</v>
       </c>
       <c r="B123">
-        <v>1.1918275231577842</v>
+        <v>0.5169047679139922</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>0.97733117867657893</v>
+        <v>1.3529695300871731</v>
       </c>
       <c r="B124">
-        <v>-7.4671231857685205E-2</v>
+        <v>1.1918275231577842</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>0.80232007494689572</v>
+        <v>0.97733117867657893</v>
       </c>
       <c r="B125">
-        <v>1.722781713658839</v>
+        <v>-7.4671231857685205E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>0.91577619061789728</v>
+        <v>0.80232007494689572</v>
       </c>
       <c r="B126">
-        <v>0.73647725194116742</v>
+        <v>1.722781713658839</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>0.54297482930469154</v>
+        <v>0.91577619061789728</v>
       </c>
       <c r="B127">
-        <v>0.62850071733485136</v>
+        <v>0.73647725194116742</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>-0.44885323005717581</v>
+        <v>0.54297482930469154</v>
       </c>
       <c r="B128">
-        <v>0.26281184675932256</v>
+        <v>0.62850071733485136</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>1.0416083662554581</v>
+        <v>-0.44885323005717581</v>
       </c>
       <c r="B129">
-        <v>1.4239309317659206</v>
+        <v>0.26281184675932256</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>-0.32112825871889084</v>
+        <v>1.0416083662554581</v>
       </c>
       <c r="B130">
-        <v>1.4096894386120336</v>
+        <v>1.4239309317659206</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>-0.57190504844909196</v>
+        <v>-0.32112825871889084</v>
       </c>
       <c r="B131">
-        <v>-0.26283018951377857</v>
+        <v>1.4096894386120336</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>-0.57409163637826022</v>
+        <v>-0.57190504844909196</v>
       </c>
       <c r="B132">
-        <v>-1.5358617018312639</v>
+        <v>-0.26283018951377857</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>1.369552807313267</v>
+        <v>-0.57409163637826022</v>
       </c>
       <c r="B133">
-        <v>1.8124622332766569</v>
+        <v>-1.5358617018312639</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>1.4810514145252616</v>
+        <v>1.369552807313267</v>
       </c>
       <c r="B134">
-        <v>0.18708267800027467</v>
+        <v>1.8124622332766569</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>-1.2588253691390112</v>
+        <v>1.4810514145252616</v>
       </c>
       <c r="B135">
-        <v>0.69764603748601739</v>
+        <v>0.18708267800027467</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>0.35190404243296125</v>
+        <v>-1.2588253691390112</v>
       </c>
       <c r="B136">
-        <v>-8.4560166136702919E-2</v>
+        <v>0.69764603748601739</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>0.75194174617539111</v>
+        <v>0.35190404243296125</v>
       </c>
       <c r="B137">
-        <v>1.9176319446933221</v>
+        <v>-8.4560166136702919E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>-0.11038462589283493</v>
+        <v>0.75194174617539111</v>
       </c>
       <c r="B138">
-        <v>-0.50318981786275363</v>
+        <v>1.9176319446933221</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>1.2609798102183829</v>
+        <v>-0.11038462589283493</v>
       </c>
       <c r="B139">
-        <v>-8.3049138801585265E-2</v>
+        <v>-0.50318981786275363</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>0.75442950225038996</v>
+        <v>1.2609798102183829</v>
       </c>
       <c r="B140">
-        <v>1.4559487269857634</v>
+        <v>-8.3049138801585265E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>0.3471663230626178</v>
+        <v>0.75442950225038996</v>
       </c>
       <c r="B141">
-        <v>-0.75685414115712835</v>
+        <v>1.4559487269857634</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>-5.7410875209180645E-2</v>
+        <v>0.3471663230626178</v>
       </c>
       <c r="B142">
-        <v>0.8106984295482067</v>
+        <v>-0.75685414115712835</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>1.1770176568474455</v>
+        <v>-5.7410875209180645E-2</v>
       </c>
       <c r="B143">
-        <v>1.2176752079425741</v>
+        <v>0.8106984295482067</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>1.3492974404220575</v>
+        <v>1.1770176568474455</v>
       </c>
       <c r="B144">
-        <v>0.80057538525516825</v>
+        <v>1.2176752079425741</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>0.96930718258995108</v>
+        <v>1.3492974404220575</v>
       </c>
       <c r="B145">
-        <v>0.43887776609276824</v>
+        <v>0.80057538525516825</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>0.26021829551074155</v>
+        <v>0.96930718258995108</v>
       </c>
       <c r="B146">
-        <v>2.1622254330327193</v>
+        <v>0.43887776609276824</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>1.4209854538099012</v>
+        <v>0.26021829551074155</v>
       </c>
       <c r="B147">
-        <v>0.63613587161890695</v>
+        <v>2.1622254330327193</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>-0.4068813784070876</v>
+        <v>1.4209854538099012</v>
       </c>
       <c r="B148">
-        <v>-0.11816149007873222</v>
+        <v>0.63613587161890695</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>0.64444060627546973</v>
+        <v>-0.4068813784070876</v>
       </c>
       <c r="B149">
-        <v>-0.24074581180779853</v>
+        <v>-0.11816149007873222</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>1.8964090281817982</v>
+        <v>0.64444060627546973</v>
       </c>
       <c r="B150">
-        <v>0.49372544151252007</v>
+        <v>-0.24074581180779853</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>0.31030124039511386</v>
+        <v>1.8964090281817982</v>
       </c>
       <c r="B151">
-        <v>-0.10027804475116597</v>
+        <v>0.49372544151252007</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>-0.34383589082600152</v>
+        <v>0.31030124039511386</v>
       </c>
       <c r="B152">
-        <v>1.5585744538746735</v>
+        <v>-0.10027804475116597</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>2.4434380498473138</v>
+        <v>-0.34383589082600152</v>
       </c>
       <c r="B153">
-        <v>1.1336055445930469</v>
+        <v>1.5585744538746735</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>0.2530784594251192</v>
+        <v>2.4434380498473138</v>
       </c>
       <c r="B154">
-        <v>-0.2210749051594818</v>
+        <v>1.1336055445930469</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>0.94161915586590739</v>
+        <v>0.2530784594251192</v>
       </c>
       <c r="B155">
-        <v>0.33263906356026601</v>
+        <v>-0.2210749051594818</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>-0.30361148422036177</v>
+        <v>0.94161915586590739</v>
       </c>
       <c r="B156">
-        <v>0.71686232493888857</v>
+        <v>0.33263906356026601</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>0.78760943270447625</v>
+        <v>-0.30361148422036177</v>
       </c>
       <c r="B157">
-        <v>-0.49565196921394483</v>
+        <v>0.71686232493888857</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>0.96701809375389836</v>
+        <v>0.78760943270447625</v>
       </c>
       <c r="B158">
-        <v>1.2766127126493632</v>
+        <v>-0.49565196921394483</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>0.50456160956191709</v>
+        <v>0.96701809375389836</v>
       </c>
       <c r="B159">
-        <v>-0.65065434941001521</v>
+        <v>1.2766127126493632</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>0.82609035860326507</v>
+        <v>0.50456160956191709</v>
       </c>
       <c r="B160">
-        <v>0.54972735583952037</v>
+        <v>-0.65065434941001521</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>1.7045867165334918</v>
+        <v>0.82609035860326507</v>
       </c>
       <c r="B161">
-        <v>-0.47984513565152465</v>
+        <v>0.54972735583952037</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>-0.90411583207085777</v>
+        <v>1.7045867165334918</v>
       </c>
       <c r="B162">
-        <v>0.26206455320874467</v>
+        <v>-0.47984513565152465</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>0.70556355545433069</v>
+        <v>-0.90411583207085777</v>
       </c>
       <c r="B163">
-        <v>1.2028202226811693</v>
+        <v>0.26206455320874467</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>-1.4911957894220709</v>
+        <v>0.70556355545433069</v>
       </c>
       <c r="B164">
-        <v>-1.0910334489767268</v>
+        <v>1.2028202226811693</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>0.52840893391826971</v>
+        <v>-1.4911957894220709</v>
       </c>
       <c r="B165">
-        <v>0.78923313966260156</v>
+        <v>-1.0910334489767268</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>2.4305154087523322</v>
+        <v>0.52840893391826971</v>
       </c>
       <c r="B166">
-        <v>1.6062833077354901</v>
+        <v>0.78923313966260156</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>1.4411367883266548</v>
+        <v>2.4305154087523322</v>
       </c>
       <c r="B167">
-        <v>1.9743922145432724</v>
+        <v>1.6062833077354901</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>0.49307554869812792</v>
+        <v>1.4411367883266548</v>
       </c>
       <c r="B168">
-        <v>0.60772509469430969</v>
+        <v>1.9743922145432724</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>0.16175835272768874</v>
+        <v>0.49307554869812792</v>
       </c>
       <c r="B169">
-        <v>1.2310763259734903</v>
+        <v>0.60772509469430969</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>1.0282657836813658</v>
+        <v>0.16175835272768874</v>
       </c>
       <c r="B170">
-        <v>0.66300611704205781</v>
+        <v>1.2310763259734903</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>1.5568995943401631</v>
+        <v>1.0282657836813658</v>
       </c>
       <c r="B171">
-        <v>0.46700820382484542</v>
+        <v>0.66300611704205781</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>0.51474061660244186</v>
+        <v>1.5568995943401631</v>
       </c>
       <c r="B172">
-        <v>0.47447762000218358</v>
+        <v>0.46700820382484542</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>2.1147612669122884</v>
+        <v>0.51474061660244186</v>
       </c>
       <c r="B173">
-        <v>1.1347602767947635</v>
+        <v>0.47447762000218358</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>-0.31585496185617734</v>
+        <v>2.1147612669122884</v>
       </c>
       <c r="B174">
-        <v>0.85562102598887591</v>
+        <v>1.1347602767947635</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>-1.4977591243665247</v>
+        <v>-0.31585496185617734</v>
       </c>
       <c r="B175">
-        <v>-0.54750175386054156</v>
+        <v>0.85562102598887591</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>-0.2481914083147494</v>
+        <v>-1.4977591243665247</v>
       </c>
       <c r="B176">
-        <v>-0.6026299356977618</v>
+        <v>-0.54750175386054156</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>0.30069597936152803</v>
+        <v>-0.2481914083147494</v>
       </c>
       <c r="B177">
-        <v>0.26624929227876715</v>
+        <v>-0.6026299356977618</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>0.12723992202955842</v>
+        <v>0.30069597936152803</v>
       </c>
       <c r="B178">
-        <v>1.3429731404396326</v>
+        <v>0.26624929227876715</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>-0.34737116016479186</v>
+        <v>0.12723992202955842</v>
       </c>
       <c r="B179">
-        <v>-0.28300582411572539</v>
+        <v>1.3429731404396326</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>1.8372380431281679</v>
+        <v>-0.34737116016479186</v>
       </c>
       <c r="B180">
-        <v>0.59824017387095241</v>
+        <v>-0.28300582411572539</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>-1.1163172579478542</v>
+        <v>1.8372380431281679</v>
       </c>
       <c r="B181">
-        <v>0.544002286686329</v>
+        <v>0.59824017387095241</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>8.1824050684313199E-3</v>
+        <v>-1.1163172579478542</v>
       </c>
       <c r="B182">
-        <v>0.34175678438338264</v>
+        <v>0.544002286686329</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>-0.46930156700743098</v>
+        <v>8.1824050684313199E-3</v>
       </c>
       <c r="B183">
-        <v>-0.29876324129232623</v>
+        <v>0.34175678438338264</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>2.5892079473096685E-2</v>
+        <v>-0.46930156700743098</v>
       </c>
       <c r="B184">
-        <v>-0.37689763164698298</v>
+        <v>-0.29876324129232623</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>-0.16616382519408956</v>
+        <v>2.5892079473096685E-2</v>
       </c>
       <c r="B185">
-        <v>-1.1146630334537677</v>
+        <v>-0.37689763164698298</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>0.97837468311500331</v>
+        <v>-0.16616382519408956</v>
       </c>
       <c r="B186">
-        <v>0.87201117282345886</v>
+        <v>-1.1146630334537677</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>-0.54105813301215089</v>
+        <v>0.97837468311500331</v>
       </c>
       <c r="B187">
-        <v>-0.2950742505812034</v>
+        <v>0.87201117282345886</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>-0.32065909065757181</v>
+        <v>-0.54105813301215089</v>
       </c>
       <c r="B188">
-        <v>0.36586176298279227</v>
+        <v>-0.2950742505812034</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>0.60112960601310972</v>
+        <v>-0.32065909065757181</v>
       </c>
       <c r="B189">
-        <v>-0.71084154395097565</v>
+        <v>0.36586176298279227</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>1.5839825368645837</v>
+        <v>0.60112960601310972</v>
       </c>
       <c r="B190">
-        <v>2.186733526663267</v>
+        <v>-0.71084154395097565</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>-1.3545272373829731</v>
+        <v>1.5839825368645837</v>
       </c>
       <c r="B191">
-        <v>-5.3326319484329199E-3</v>
+        <v>2.186733526663267</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>2.2997527857880931</v>
+        <v>-1.3545272373829731</v>
       </c>
       <c r="B192">
-        <v>4.3138262897585267E-2</v>
+        <v>-5.3326319484329199E-3</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>-0.37837430557853236</v>
+        <v>2.2997527857880931</v>
       </c>
       <c r="B193">
-        <v>0.97625333919597623</v>
+        <v>4.3138262897585267E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>1.1477327264332122</v>
+        <v>-0.37837430557853236</v>
       </c>
       <c r="B194">
-        <v>0.31500906467924911</v>
+        <v>0.97625333919597623</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>1.5495650322524903</v>
+        <v>1.1477327264332122</v>
       </c>
       <c r="B195">
-        <v>1.2865141148285262</v>
+        <v>0.31500906467924911</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>1.8230933768457083</v>
+        <v>1.5495650322524903</v>
       </c>
       <c r="B196">
-        <v>1.3516066919706327</v>
+        <v>1.2865141148285262</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>-1.7358965637975454E-2</v>
+        <v>1.8230933768457083</v>
       </c>
       <c r="B197">
-        <v>-0.51922394636014801</v>
+        <v>1.3516066919706327</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>0.52431494971105608</v>
+        <v>-1.7358965637975454E-2</v>
       </c>
       <c r="B198">
-        <v>-1.9658874070557015</v>
+        <v>-0.51922394636014801</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>0.33763312644645826</v>
+        <v>0.52431494971105608</v>
       </c>
       <c r="B199">
-        <v>0.882621055197365</v>
+        <v>-1.9658874070557015</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>-0.105661086067383</v>
+        <v>0.33763312644645826</v>
       </c>
       <c r="B200">
-        <v>-9.9043542450928834E-2</v>
+        <v>0.882621055197365</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>-1.447006688707438</v>
+        <v>-0.105661086067383</v>
       </c>
       <c r="B201">
-        <v>-3.3537586700953272</v>
+        <v>-9.9043542450928834E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>-1.6778900868341815</v>
+        <v>-1.447006688707438</v>
       </c>
       <c r="B202">
-        <v>-2.1033514433655265</v>
+        <v>-3.3537586700953272</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>0.27248256195541143</v>
+        <v>-1.6778900868341815</v>
       </c>
       <c r="B203">
-        <v>-1.8952264472139286</v>
+        <v>-2.1033514433655265</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>-4.008803613080886</v>
+        <v>0.27248256195541143</v>
       </c>
       <c r="B204">
-        <v>-0.24684778052962564</v>
+        <v>-1.8952264472139286</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>-1.9565891853592341</v>
+        <v>-4.008803613080886</v>
       </c>
       <c r="B205">
-        <v>-0.73137079629604429</v>
+        <v>-0.24684778052962564</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>0.93037753693737812</v>
+        <v>-1.9565891853592341</v>
       </c>
       <c r="B206">
-        <v>-2.605687796717044</v>
+        <v>-0.73137079629604429</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>-1.9714540858987137</v>
+        <v>0.93037753693737812</v>
       </c>
       <c r="B207">
-        <v>-0.67462415066555914</v>
+        <v>-2.605687796717044</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>-2.0603284911483231</v>
+        <v>-1.9714540858987137</v>
       </c>
       <c r="B208">
-        <v>-2.3347706410655942</v>
+        <v>-0.67462415066555914</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>-2.7264673737636387</v>
+        <v>-2.0603284911483231</v>
       </c>
       <c r="B209">
-        <v>-0.69789929065118372</v>
+        <v>-2.3347706410655942</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>-0.70704963640178542</v>
+        <v>-2.7264673737636387</v>
       </c>
       <c r="B210">
-        <v>-3.2531620643519208</v>
+        <v>-0.69789929065118372</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>-9.7858854736040723E-2</v>
+        <v>-0.70704963640178542</v>
       </c>
       <c r="B211">
-        <v>-0.57425965335456652</v>
+        <v>-3.2531620643519208</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>0.91891270841030259</v>
+        <v>-9.7858854736040723E-2</v>
       </c>
       <c r="B212">
-        <v>0.98080456710708031</v>
+        <v>-0.57425965335456652</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>-0.18968072077370934</v>
+        <v>0.91891270841030259</v>
       </c>
       <c r="B213">
-        <v>0.73282730243863203</v>
+        <v>0.98080456710708031</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>1.1711910412909399</v>
+        <v>-0.18968072077370934</v>
       </c>
       <c r="B214">
-        <v>1.5527654922347165</v>
+        <v>0.73282730243863203</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>0.65089746051901709</v>
+        <v>1.1711910412909399</v>
       </c>
       <c r="B215">
-        <v>0.5810859305646664</v>
+        <v>1.5527654922347165</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>-0.49131888483513153</v>
+        <v>0.65089746051901709</v>
       </c>
       <c r="B216">
-        <v>-0.19994807769249423</v>
+        <v>0.5810859305646664</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>1.3368299477483316</v>
+        <v>-0.49131888483513153</v>
       </c>
       <c r="B217">
-        <v>1.4837746262296996</v>
+        <v>-0.19994807769249423</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>0.97450897023527228</v>
+        <v>1.3368299477483316</v>
       </c>
       <c r="B218">
-        <v>2.4385895466900314</v>
+        <v>1.4837746262296996</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>1.752165854769919</v>
+        <v>0.97450897023527228</v>
       </c>
       <c r="B219">
-        <v>1.8921552934006338</v>
+        <v>2.4385895466900314</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
+        <v>1.752165854769919</v>
+      </c>
+      <c r="B220">
+        <v>1.8921552934006338</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
         <v>-0.39262265566066001</v>
       </c>
-      <c r="B220">
+      <c r="B221">
         <v>0.12689982455625282</v>
       </c>
     </row>
